--- a/data/material/罗卡-素本-单价优惠.xlsx
+++ b/data/material/罗卡-素本-单价优惠.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26240" windowHeight="12100"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>品名</t>
   </si>
@@ -44,10 +44,35 @@
     <t>米</t>
   </si>
   <si>
+    <r>
+      <t>8823#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斜纹蚕丝绸</t>
+    </r>
+  </si>
+  <si>
     <t>1005#100D机械弹</t>
   </si>
   <si>
-    <t>8819#50D四面弹</t>
+    <r>
+      <t>8819#50D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四面弹</t>
+    </r>
   </si>
   <si>
     <t>1003#超柔舒美绸</t>
@@ -784,8 +809,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -796,6 +822,12 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,165 +1157,176 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.6634615384615" customWidth="1"/>
-    <col min="2" max="2" width="12.6923076923077" customWidth="1"/>
-    <col min="3" max="3" width="17.3076923076923" customWidth="1"/>
+    <col min="1" max="1" width="22.6636363636364" customWidth="1"/>
+    <col min="2" max="2" width="12.6909090909091" customWidth="1"/>
+    <col min="3" max="3" width="17.3090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:3">
+    <row r="3" ht="16.5" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="5" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="6" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="7" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:3">
-      <c r="A9" s="3" t="s">
+    <row r="9" ht="16.5" customHeight="1" spans="1:3">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A10" s="3" t="s">
+    <row r="10" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>0.2</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>0.2</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" ht="12" customHeight="1" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+    <row r="13" ht="16.5" customHeight="1" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" ht="12" customHeight="1" spans="1:3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B12 A2:B11 A13:C13 A1:C1" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:B4 B5 A6:B12 B13 A2:B2 A14:C14 A1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>